--- a/data/final_scored.xlsx
+++ b/data/final_scored.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CProject\ImageProcessing\Trend-similarity\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE1AA9C-1DDD-4A3A-A041-99E82B618256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F876F6FB-3CEF-4F81-891D-8FA35F029F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="828" windowWidth="18564" windowHeight="14664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9912" yWindow="2580" windowWidth="16344" windowHeight="14004" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="113">
   <si>
     <t>match_id1</t>
   </si>
@@ -340,6 +340,34 @@
   </si>
   <si>
     <t>2025/05/05-2783VS51-60</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025/05/18-29VS174-60</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025/05/25-165VS29-67</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025/05/18-55VS53-60</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025/05/13-58VS2783-60</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025/05/11-86VS269-60</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025/05/11-76VS79-61</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025/05/10-246VS309-60</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -745,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -777,7 +805,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>4</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -828,7 +856,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>9</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -1015,7 +1043,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="B16" t="s">
         <v>23</v>
@@ -1270,7 +1298,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="B31" t="s">
         <v>42</v>
@@ -1372,7 +1400,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="B37" t="s">
         <v>50</v>
@@ -1488,7 +1516,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="B44" t="s">
         <v>59</v>
@@ -1556,7 +1584,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="B48" t="s">
         <v>65</v>
